--- a/municipal/განათლება/ზოგადსაგანმანათლებლო დაწესებულებები/იმერეთი/საჩხერე.xlsx
+++ b/municipal/განათლება/ზოგადსაგანმანათლებლო დაწესებულებები/იმერეთი/საჩხერე.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\სკოლები\ზოგადსაგანმანათლებლო დაწესებულებები\იმერეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სკოლები\ზოგადსაგანმანათლებლო დაწესებულებები\იმერეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9252C5EC-FCA0-4B86-8532-724B0C4D3862}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20CF418-6A0B-47AE-B0FE-8A2908606047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9945" yWindow="525" windowWidth="9255" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="საჩხერე" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>საჯარო და კერძო ზოგადსაგანმანათლებლო დაწესებულებები საჩხერის მუნიციპალიტეტში</t>
   </si>
@@ -110,7 +110,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>წყარო:</t>
     </r>
@@ -119,11 +119,17 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> საქართველოს განათლებისა და მეცნიერების სამინისტრო.
 </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> დაწყებითი საფეხურის კურსდამთავრებულთა რიცხოვნობა</t>
+  </si>
+  <si>
+    <t>საბაზო საფეხურის კურსდამთავრებულთა რიცხოვნობა</t>
   </si>
 </sst>
 </file>
@@ -131,8 +137,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="#\ ##0"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -146,49 +152,49 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -196,10 +202,10 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,6 +216,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -254,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -267,36 +285,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -304,6 +307,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -311,7 +315,33 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -632,11 +662,11 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21" customHeight="1">
       <c r="A3" s="5"/>
@@ -667,19 +697,19 @@
       <c r="J3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -687,445 +717,736 @@
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="18">
         <v>32</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="18">
         <v>33</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="18">
         <v>33</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="18">
         <v>33</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="18">
         <v>33</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="18">
         <v>33</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="18">
         <v>33</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="18">
         <v>33</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="18">
         <v>33</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="18">
         <v>33</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="18">
         <v>33</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="18">
         <v>33</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="19">
         <v>33</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="18">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="21" customHeight="1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="20">
         <v>6131</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="20">
         <v>5902</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="20">
         <v>5809</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="20">
         <v>5645</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="20">
         <v>5560</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="20">
         <v>5393</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="20">
         <v>5316</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="20">
         <v>5257</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="20">
         <v>5191</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="20">
         <v>5116</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="20">
         <v>5152</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="20">
         <v>5209</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="20">
         <v>5105</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="20">
         <v>4986</v>
       </c>
+      <c r="Q5" s="15"/>
     </row>
     <row r="6" spans="1:18" ht="30">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="19">
+        <v>473</v>
+      </c>
+      <c r="D6" s="22">
+        <v>480</v>
+      </c>
+      <c r="E6" s="23">
+        <v>441</v>
+      </c>
+      <c r="F6" s="23">
+        <v>397</v>
+      </c>
+      <c r="G6" s="22">
+        <v>467</v>
+      </c>
+      <c r="H6" s="19">
+        <v>465</v>
+      </c>
+      <c r="I6" s="19">
+        <v>428</v>
+      </c>
+      <c r="J6" s="23">
+        <v>404</v>
+      </c>
+      <c r="K6" s="23">
+        <v>407</v>
+      </c>
+      <c r="L6" s="22">
+        <v>388</v>
+      </c>
+      <c r="M6" s="22">
+        <v>496</v>
+      </c>
+      <c r="N6" s="19">
+        <v>493</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="15"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.75">
+      <c r="A7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="19">
+        <v>212</v>
+      </c>
+      <c r="D7" s="19">
+        <v>237</v>
+      </c>
+      <c r="E7" s="19">
+        <v>206</v>
+      </c>
+      <c r="F7" s="19">
+        <v>201</v>
+      </c>
+      <c r="G7" s="19">
+        <v>218</v>
+      </c>
+      <c r="H7" s="19">
+        <v>215</v>
+      </c>
+      <c r="I7" s="19">
+        <v>203</v>
+      </c>
+      <c r="J7" s="19">
+        <v>183</v>
+      </c>
+      <c r="K7" s="19">
+        <v>198</v>
+      </c>
+      <c r="L7" s="19">
+        <v>185</v>
+      </c>
+      <c r="M7" s="19">
+        <v>254</v>
+      </c>
+      <c r="N7" s="19">
+        <v>228</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="15"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.75">
+      <c r="A8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="19">
+        <v>261</v>
+      </c>
+      <c r="D8" s="19">
+        <v>243</v>
+      </c>
+      <c r="E8" s="19">
+        <v>235</v>
+      </c>
+      <c r="F8" s="19">
+        <v>196</v>
+      </c>
+      <c r="G8" s="19">
+        <v>249</v>
+      </c>
+      <c r="H8" s="19">
+        <v>250</v>
+      </c>
+      <c r="I8" s="19">
+        <v>225</v>
+      </c>
+      <c r="J8" s="19">
+        <v>221</v>
+      </c>
+      <c r="K8" s="19">
+        <v>209</v>
+      </c>
+      <c r="L8" s="19">
+        <v>203</v>
+      </c>
+      <c r="M8" s="19">
+        <v>242</v>
+      </c>
+      <c r="N8" s="19">
+        <v>265</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="15"/>
+    </row>
+    <row r="9" spans="1:18" ht="30">
+      <c r="A9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="19">
+        <v>535</v>
+      </c>
+      <c r="D9" s="22">
+        <v>571</v>
+      </c>
+      <c r="E9" s="23">
+        <v>526</v>
+      </c>
+      <c r="F9" s="19">
+        <v>448</v>
+      </c>
+      <c r="G9" s="23">
+        <v>460</v>
+      </c>
+      <c r="H9" s="19">
+        <v>445</v>
+      </c>
+      <c r="I9" s="19">
+        <v>384</v>
+      </c>
+      <c r="J9" s="22">
+        <v>453</v>
+      </c>
+      <c r="K9" s="23">
+        <v>465</v>
+      </c>
+      <c r="L9" s="22">
+        <v>423</v>
+      </c>
+      <c r="M9" s="22">
+        <v>404</v>
+      </c>
+      <c r="N9" s="19">
+        <v>399</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="15"/>
+    </row>
+    <row r="10" spans="1:18" ht="15.75">
+      <c r="A10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="19">
+        <v>238</v>
+      </c>
+      <c r="D10" s="19">
+        <v>272</v>
+      </c>
+      <c r="E10" s="19">
+        <v>227</v>
+      </c>
+      <c r="F10" s="19">
+        <v>196</v>
+      </c>
+      <c r="G10" s="19">
+        <v>220</v>
+      </c>
+      <c r="H10" s="19">
+        <v>210</v>
+      </c>
+      <c r="I10" s="19">
+        <v>200</v>
+      </c>
+      <c r="J10" s="19">
+        <v>212</v>
+      </c>
+      <c r="K10" s="19">
+        <v>221</v>
+      </c>
+      <c r="L10" s="19">
+        <v>202</v>
+      </c>
+      <c r="M10" s="19">
+        <v>186</v>
+      </c>
+      <c r="N10" s="19">
+        <v>194</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="15"/>
+    </row>
+    <row r="11" spans="1:18" ht="15.75">
+      <c r="A11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="19">
+        <v>297</v>
+      </c>
+      <c r="D11" s="19">
+        <v>299</v>
+      </c>
+      <c r="E11" s="19">
+        <v>299</v>
+      </c>
+      <c r="F11" s="19">
+        <v>252</v>
+      </c>
+      <c r="G11" s="19">
+        <v>240</v>
+      </c>
+      <c r="H11" s="19">
+        <v>235</v>
+      </c>
+      <c r="I11" s="19">
+        <v>184</v>
+      </c>
+      <c r="J11" s="19">
+        <v>241</v>
+      </c>
+      <c r="K11" s="19">
+        <v>244</v>
+      </c>
+      <c r="L11" s="19">
+        <v>221</v>
+      </c>
+      <c r="M11" s="19">
+        <v>218</v>
+      </c>
+      <c r="N11" s="19">
+        <v>205</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="15"/>
+    </row>
+    <row r="12" spans="1:18" ht="30">
+      <c r="A12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="14">
-        <v>436</v>
-      </c>
-      <c r="D6" s="14">
-        <v>513</v>
-      </c>
-      <c r="E6" s="14">
+      <c r="B12" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="19">
         <v>443</v>
       </c>
-      <c r="F6" s="14">
-        <v>459</v>
-      </c>
-      <c r="G6" s="14">
-        <v>490</v>
-      </c>
-      <c r="H6" s="14">
-        <v>463</v>
-      </c>
-      <c r="I6" s="14">
+      <c r="D12" s="22">
+        <v>533</v>
+      </c>
+      <c r="E12" s="23">
+        <v>442</v>
+      </c>
+      <c r="F12" s="23">
+        <v>450</v>
+      </c>
+      <c r="G12" s="22">
+        <v>489</v>
+      </c>
+      <c r="H12" s="19">
+        <v>461</v>
+      </c>
+      <c r="I12" s="19">
         <v>393</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J12" s="23">
         <v>401</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K12" s="23">
         <v>395</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L12" s="22">
         <v>355</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M12" s="22">
         <v>434</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N12" s="20">
         <v>450</v>
       </c>
-      <c r="O6" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="21" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="O12" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="15"/>
+    </row>
+    <row r="13" spans="1:18" ht="21" customHeight="1">
+      <c r="A13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B13" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="19">
         <v>218</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D13" s="19">
+        <v>267</v>
+      </c>
+      <c r="E13" s="19">
+        <v>206</v>
+      </c>
+      <c r="F13" s="19">
+        <v>209</v>
+      </c>
+      <c r="G13" s="19">
+        <v>243</v>
+      </c>
+      <c r="H13" s="19">
+        <v>201</v>
+      </c>
+      <c r="I13" s="19">
+        <v>182</v>
+      </c>
+      <c r="J13" s="19">
+        <v>201</v>
+      </c>
+      <c r="K13" s="19">
+        <v>187</v>
+      </c>
+      <c r="L13" s="19">
+        <v>191</v>
+      </c>
+      <c r="M13" s="19">
+        <v>211</v>
+      </c>
+      <c r="N13" s="20">
+        <v>211</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="15"/>
+    </row>
+    <row r="14" spans="1:18" ht="21" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="19">
+        <v>225</v>
+      </c>
+      <c r="D14" s="19">
+        <v>266</v>
+      </c>
+      <c r="E14" s="19">
+        <v>236</v>
+      </c>
+      <c r="F14" s="19">
+        <v>241</v>
+      </c>
+      <c r="G14" s="19">
+        <v>246</v>
+      </c>
+      <c r="H14" s="19">
         <v>260</v>
       </c>
-      <c r="E7" s="11">
-        <v>205</v>
-      </c>
-      <c r="F7" s="11">
-        <v>213</v>
-      </c>
-      <c r="G7" s="11">
-        <v>243</v>
-      </c>
-      <c r="H7" s="11">
-        <v>201</v>
-      </c>
-      <c r="I7" s="11">
-        <v>182</v>
-      </c>
-      <c r="J7" s="11">
-        <v>201</v>
-      </c>
-      <c r="K7" s="11">
-        <v>187</v>
-      </c>
-      <c r="L7" s="11">
-        <v>191</v>
-      </c>
-      <c r="M7" s="11">
+      <c r="I14" s="19">
         <v>211</v>
       </c>
-      <c r="N7" s="11">
-        <v>211</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="21" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="11">
-        <v>218</v>
-      </c>
-      <c r="D8" s="11">
-        <v>253</v>
-      </c>
-      <c r="E8" s="11">
-        <v>238</v>
-      </c>
-      <c r="F8" s="11">
-        <v>246</v>
-      </c>
-      <c r="G8" s="11">
-        <v>247</v>
-      </c>
-      <c r="H8" s="11">
-        <v>262</v>
-      </c>
-      <c r="I8" s="11">
-        <v>211</v>
-      </c>
-      <c r="J8" s="11">
+      <c r="J14" s="19">
         <v>200</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K14" s="19">
         <v>208</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L14" s="19">
         <v>164</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M14" s="19">
         <v>223</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N14" s="20">
         <v>239</v>
       </c>
-      <c r="O8" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="27.75" customHeight="1">
-      <c r="A9" s="16" t="s">
+      <c r="O14" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="27.75" customHeight="1">
+      <c r="A15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="24">
-        <v>11.391098744627763</v>
-      </c>
-      <c r="D9" s="24">
-        <v>13.500532915772991</v>
-      </c>
-      <c r="E9" s="24">
-        <v>11.712759769446354</v>
-      </c>
-      <c r="F9" s="24">
-        <v>12.142696525178238</v>
-      </c>
-      <c r="G9" s="24">
-        <v>13.011497915504926</v>
-      </c>
-      <c r="H9" s="24">
-        <v>12.409042788416439</v>
-      </c>
-      <c r="I9" s="24">
-        <v>10.648097973339112</v>
-      </c>
-      <c r="J9" s="24">
-        <v>10.987204427761187</v>
-      </c>
-      <c r="K9" s="24">
-        <v>10.951384171784245</v>
-      </c>
-      <c r="L9" s="24">
-        <v>9.9890261402965752</v>
-      </c>
-      <c r="M9" s="24">
-        <v>12.382134349010713</v>
-      </c>
-      <c r="N9" s="24">
+      <c r="B15" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="24">
+        <v>5.1580983459873417</v>
+      </c>
+      <c r="D15" s="24">
+        <v>6.0017978954047901</v>
+      </c>
+      <c r="E15" s="24">
+        <v>5.7142101294956413</v>
+      </c>
+      <c r="F15" s="24">
+        <v>5.363923630473459</v>
+      </c>
+      <c r="G15" s="24">
+        <v>5.0922637792637655</v>
+      </c>
+      <c r="H15" s="24">
+        <v>4.6060474693833315</v>
+      </c>
+      <c r="I15" s="24">
+        <v>3.9455297695701015</v>
+      </c>
+      <c r="J15" s="24">
+        <v>4.2142035293954558</v>
+      </c>
+      <c r="K15" s="24">
+        <v>4.614648695798981</v>
+      </c>
+      <c r="L15" s="24">
+        <v>3.9942368867776494</v>
+      </c>
+      <c r="M15" s="24">
+        <v>5.3076554954536892</v>
+      </c>
+      <c r="N15" s="24">
         <v>13.29983744643121</v>
       </c>
-      <c r="O9" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="21" customHeight="1">
-      <c r="A10" s="10" t="s">
+      <c r="O15" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="21" customHeight="1">
+      <c r="A16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="B16" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="20">
         <v>895</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I16" s="20">
         <v>891</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J16" s="20">
         <v>861</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K16" s="20">
         <v>788</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L16" s="20">
         <v>769</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M16" s="20">
         <v>756</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N16" s="20">
         <v>738</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O16" s="21">
         <v>738</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="21" customHeight="1">
-      <c r="A11" s="10" t="s">
+    <row r="17" spans="1:15" ht="21" customHeight="1">
+      <c r="A17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="11">
+      <c r="B17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="20">
         <v>726</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I17" s="20">
         <v>724</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J17" s="20">
         <v>702</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K17" s="20">
         <v>653</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L17" s="20">
         <v>645</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M17" s="20">
         <v>635</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N17" s="20">
         <v>622</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O17" s="21">
         <v>621</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="21" customHeight="1">
-      <c r="A12" s="17" t="s">
+    <row r="18" spans="1:15" ht="21" customHeight="1">
+      <c r="A18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="19">
+      <c r="B18" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="26">
         <v>169</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I18" s="26">
         <v>167</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J18" s="26">
         <v>159</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K18" s="26">
         <v>135</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L18" s="26">
         <v>124</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M18" s="26">
         <v>121</v>
       </c>
-      <c r="N12" s="19">
+      <c r="N18" s="26">
         <v>116</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O18" s="25">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="22" t="s">
+    <row r="19" spans="1:15">
+      <c r="A19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="23" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
